--- a/games/PowerWashSimulator/data.xlsx
+++ b/games/PowerWashSimulator/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\HadesGame-Checklist\PowerWashSimulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\VideoGames-Achievements-Checklist\games\PowerWashSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7ECBA8-76B7-49BD-98AC-C3B6A3C532C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D8B7E1-056F-4595-AE1C-4B1F0E1EE552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="390" windowWidth="18675" windowHeight="13275" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
+    <workbookView xWindow="1020" yWindow="735" windowWidth="18675" windowHeight="13275" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEB57F3-4A37-4B35-911F-04B3CFC91EFD}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,7 +1811,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B25" t="s">
@@ -1820,9 +1820,12 @@
       <c r="C25">
         <v>1</v>
       </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B26" t="s">
@@ -1831,15 +1834,21 @@
       <c r="C26">
         <v>1</v>
       </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
       <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <v>1</v>
       </c>
     </row>
@@ -1941,7 +1950,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B36" t="s">

--- a/games/PowerWashSimulator/data.xlsx
+++ b/games/PowerWashSimulator/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\VideoGames-Achievements-Checklist\games\PowerWashSimulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\games\PowerWashSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D8B7E1-056F-4595-AE1C-4B1F0E1EE552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEC6B41-334D-4466-9D27-4EC6A00C06BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="735" windowWidth="18675" windowHeight="13275" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
+    <workbookView xWindow="5040" yWindow="1440" windowWidth="18675" windowHeight="13275" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -998,12 +998,13 @@
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
@@ -1081,13 +1082,16 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -1196,13 +1200,16 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
@@ -1308,7 +1315,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
@@ -1317,6 +1324,9 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
       <c r="E6" t="s">
         <v>95</v>
       </c>
@@ -1364,7 +1374,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
@@ -1373,6 +1383,9 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="E7" t="s">
         <v>97</v>
       </c>
@@ -1420,13 +1433,16 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
@@ -1853,7 +1869,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B28" t="s">
@@ -1862,9 +1878,12 @@
       <c r="C28">
         <v>1</v>
       </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B29" t="s">
@@ -1873,9 +1892,12 @@
       <c r="C29">
         <v>1</v>
       </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B30" t="s">
@@ -1884,9 +1906,12 @@
       <c r="C30">
         <v>1</v>
       </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B31" t="s">
@@ -1895,15 +1920,21 @@
       <c r="C31">
         <v>1</v>
       </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B32" t="s">
         <v>68</v>
       </c>
       <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
         <v>1</v>
       </c>
     </row>
@@ -2008,13 +2039,16 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B41" t="s">
         <v>86</v>
       </c>
       <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
         <v>1</v>
       </c>
     </row>
